--- a/ass_3/3/fix1_community_switching_detailed.xlsx
+++ b/ass_3/3/fix1_community_switching_detailed.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Guido/Development/WebAnalyticsHadoop/GitHub/web-analytics/ass_3/3/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10980" windowHeight="4515"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet name="Version2" sheetId="3" r:id="rId1"/>
     <sheet name="Version1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="30">
   <si>
     <t>Community</t>
   </si>
@@ -89,12 +92,39 @@
   <si>
     <t>Returnee</t>
   </si>
+  <si>
+    <t>-&gt; 2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -&gt; 2004</t>
+  </si>
+  <si>
+    <t>-&gt; 2005</t>
+  </si>
+  <si>
+    <t>-&gt; 2006</t>
+  </si>
+  <si>
+    <t>-&gt; 2007</t>
+  </si>
+  <si>
+    <t>-&gt; 2008</t>
+  </si>
+  <si>
+    <t>-&gt; 2009</t>
+  </si>
+  <si>
+    <t>-&gt; 2010</t>
+  </si>
+  <si>
+    <t>-&gt; 2011</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +143,12 @@
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -144,11 +180,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft Sans Serif"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -631,52 +689,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel2" displayName="Tabel2" ref="A1:K37" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:K37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel2" displayName="Tabel2" ref="A1:L37" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+  <autoFilter ref="A1:L37"/>
   <sortState ref="A2:K37">
     <sortCondition ref="B1:B37"/>
   </sortState>
-  <tableColumns count="11">
-    <tableColumn id="1" name="Community" dataDxfId="12"/>
-    <tableColumn id="2" name="Type" dataDxfId="11"/>
-    <tableColumn id="3" name="2001 -&gt; 2002" dataDxfId="10"/>
-    <tableColumn id="4" name="2002 -&gt; 2003" dataDxfId="9"/>
-    <tableColumn id="5" name="2003 -&gt; 2004" dataDxfId="8"/>
-    <tableColumn id="6" name="2004 -&gt; 2005" dataDxfId="7"/>
-    <tableColumn id="7" name="2005 -&gt; 2006" dataDxfId="6"/>
-    <tableColumn id="8" name="2006 -&gt; 2007" dataDxfId="5"/>
-    <tableColumn id="9" name="2007 -&gt; 2008" dataDxfId="4"/>
-    <tableColumn id="10" name="2008 -&gt; 2009" dataDxfId="3"/>
-    <tableColumn id="11" name="2009 -&gt; 2010" dataDxfId="2"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="Community" dataDxfId="24"/>
+    <tableColumn id="2" name="Type" dataDxfId="23"/>
+    <tableColumn id="3" name="2001 -&gt; 2002" dataDxfId="22"/>
+    <tableColumn id="4" name="-&gt; 2003" dataDxfId="21"/>
+    <tableColumn id="5" name=" -&gt; 2004" dataDxfId="20"/>
+    <tableColumn id="6" name="-&gt; 2005" dataDxfId="19"/>
+    <tableColumn id="7" name="-&gt; 2006" dataDxfId="18"/>
+    <tableColumn id="8" name="-&gt; 2007" dataDxfId="17"/>
+    <tableColumn id="9" name="-&gt; 2008" dataDxfId="16"/>
+    <tableColumn id="10" name="-&gt; 2009" dataDxfId="15"/>
+    <tableColumn id="11" name="-&gt; 2010" dataDxfId="14"/>
+    <tableColumn id="12" name="-&gt; 2011" dataDxfId="0">
+      <calculatedColumnFormula>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:K31" totalsRowShown="0" headerRowDxfId="13" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:K31" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:K31"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Community" dataDxfId="25"/>
-    <tableColumn id="2" name="Type" dataDxfId="24"/>
-    <tableColumn id="3" name="2001 -&gt; 2002" dataDxfId="23"/>
-    <tableColumn id="4" name="2002 -&gt; 2003" dataDxfId="22"/>
-    <tableColumn id="5" name="2003 -&gt; 2004" dataDxfId="21"/>
-    <tableColumn id="6" name="2004 -&gt; 2005" dataDxfId="20"/>
-    <tableColumn id="7" name="2005 -&gt; 2006" dataDxfId="19"/>
-    <tableColumn id="8" name="2006 -&gt; 2007" dataDxfId="18"/>
-    <tableColumn id="9" name="2007 -&gt; 2008" dataDxfId="17"/>
-    <tableColumn id="10" name="2008 -&gt; 2009" dataDxfId="16"/>
-    <tableColumn id="11" name="2009 -&gt; 2010" dataDxfId="15"/>
+    <tableColumn id="1" name="Community" dataDxfId="11"/>
+    <tableColumn id="2" name="Type" dataDxfId="10"/>
+    <tableColumn id="3" name="2001 -&gt; 2002" dataDxfId="9"/>
+    <tableColumn id="4" name="2002 -&gt; 2003" dataDxfId="8"/>
+    <tableColumn id="5" name="2003 -&gt; 2004" dataDxfId="7"/>
+    <tableColumn id="6" name="2004 -&gt; 2005" dataDxfId="6"/>
+    <tableColumn id="7" name="2005 -&gt; 2006" dataDxfId="5"/>
+    <tableColumn id="8" name="2006 -&gt; 2007" dataDxfId="4"/>
+    <tableColumn id="9" name="2007 -&gt; 2008" dataDxfId="3"/>
+    <tableColumn id="10" name="2008 -&gt; 2009" dataDxfId="2"/>
+    <tableColumn id="11" name="2009 -&gt; 2010" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -714,14 +775,14 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -754,9 +815,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -786,7 +847,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -936,21 +997,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K37"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="17.140625" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="13.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="13" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -960,32 +1025,35 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1019,8 +1087,12 @@
       <c r="K2" s="1">
         <v>259</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="1">
+        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1054,8 +1126,12 @@
       <c r="K3" s="1">
         <v>442</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="1">
+        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
+        <v>5673</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1089,8 +1165,12 @@
       <c r="K4" s="1">
         <v>263</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="1">
+        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1124,8 +1204,12 @@
       <c r="K5" s="1">
         <v>452</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="1">
+        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
+        <v>4224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1159,8 +1243,12 @@
       <c r="K6" s="1">
         <v>235</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="1">
+        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1194,8 +1282,12 @@
       <c r="K7" s="1">
         <v>594</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="1">
+        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
+        <v>4649</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -1229,8 +1321,12 @@
       <c r="K8" s="1">
         <v>556</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="1">
+        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
+        <v>4258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1264,8 +1360,12 @@
       <c r="K9" s="1">
         <v>794</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="1">
+        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
+        <v>7152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -1299,8 +1399,12 @@
       <c r="K10" s="1">
         <v>401</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="1">
+        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -1334,8 +1438,12 @@
       <c r="K11" s="1">
         <v>869</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="1">
+        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
+        <v>5035</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>4</v>
       </c>
@@ -1369,8 +1477,12 @@
       <c r="K12" s="1">
         <v>402</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="1">
+        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>5</v>
       </c>
@@ -1404,8 +1516,12 @@
       <c r="K13" s="1">
         <v>1196</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="1">
+        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
+        <v>5621</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -1439,8 +1555,12 @@
       <c r="K14" s="1">
         <v>187</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="1">
+        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1474,8 +1594,12 @@
       <c r="K15" s="1">
         <v>335</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="1">
+        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -1509,8 +1633,12 @@
       <c r="K16" s="1">
         <v>136</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="1">
+        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
+        <v>766</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -1544,8 +1672,12 @@
       <c r="K17" s="1">
         <v>219</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="1">
+        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>4</v>
       </c>
@@ -1579,8 +1711,12 @@
       <c r="K18" s="1">
         <v>177</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="1">
+        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -1614,8 +1750,12 @@
       <c r="K19" s="1">
         <v>271</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="1">
+        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -1649,8 +1789,12 @@
       <c r="K20" s="1">
         <v>146</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="1">
+        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -1684,8 +1828,12 @@
       <c r="K21" s="1">
         <v>194</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="1">
+        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -1719,8 +1867,12 @@
       <c r="K22" s="1">
         <v>73</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="1">
+        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -1754,8 +1906,12 @@
       <c r="K23" s="1">
         <v>144</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="1">
+        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
+        <v>997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>4</v>
       </c>
@@ -1789,8 +1945,12 @@
       <c r="K24" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="1">
+        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
+        <v>961</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>5</v>
       </c>
@@ -1824,8 +1984,12 @@
       <c r="K25" s="1">
         <v>362</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="1">
+        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -1859,8 +2023,12 @@
       <c r="K26" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="1">
+        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -1894,8 +2062,12 @@
       <c r="K27" s="1">
         <v>359</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" s="1">
+        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -1929,8 +2101,12 @@
       <c r="K28" s="1">
         <v>131</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="1">
+        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -1964,8 +2140,12 @@
       <c r="K29" s="1">
         <v>243</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" s="1">
+        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>4</v>
       </c>
@@ -1999,8 +2179,12 @@
       <c r="K30" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="1">
+        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>5</v>
       </c>
@@ -2034,8 +2218,12 @@
       <c r="K31" s="1">
         <v>192</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" s="1">
+        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -2069,8 +2257,12 @@
       <c r="K32" s="1">
         <v>182</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" s="1">
+        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -2104,8 +2296,12 @@
       <c r="K33" s="1">
         <v>225</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" s="1">
+        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>2</v>
       </c>
@@ -2139,8 +2335,12 @@
       <c r="K34" s="1">
         <v>145</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" s="1">
+        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
+        <v>813</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>3</v>
       </c>
@@ -2174,8 +2374,12 @@
       <c r="K35" s="1">
         <v>304</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" s="1">
+        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>4</v>
       </c>
@@ -2209,8 +2413,12 @@
       <c r="K36" s="1">
         <v>147</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" s="1">
+        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>5</v>
       </c>
@@ -2244,8 +2452,13 @@
       <c r="K37" s="1">
         <v>200</v>
       </c>
+      <c r="L37" s="1">
+        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
+        <v>826</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C2:K37">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -2256,7 +2469,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="87" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -2271,15 +2485,15 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="11" width="17.140625" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="11" width="17.1640625" customWidth="1"/>
+    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2314,7 +2528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2349,7 +2563,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -2384,7 +2598,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -2419,7 +2633,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -2454,7 +2668,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -2489,7 +2703,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -2524,7 +2738,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -2559,7 +2773,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -2594,7 +2808,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -2629,7 +2843,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -2664,7 +2878,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -2699,7 +2913,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -2734,7 +2948,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -2769,7 +2983,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -2804,7 +3018,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -2839,7 +3053,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -2874,7 +3088,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>3</v>
       </c>
@@ -2909,7 +3123,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3</v>
       </c>
@@ -2944,7 +3158,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>3</v>
       </c>
@@ -2979,7 +3193,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>3</v>
       </c>
@@ -3014,7 +3228,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>4</v>
       </c>
@@ -3049,7 +3263,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>4</v>
       </c>
@@ -3084,7 +3298,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>4</v>
       </c>
@@ -3119,7 +3333,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>4</v>
       </c>
@@ -3154,7 +3368,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>4</v>
       </c>
@@ -3189,7 +3403,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>5</v>
       </c>
@@ -3224,7 +3438,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>5</v>
       </c>
@@ -3259,7 +3473,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>5</v>
       </c>
@@ -3294,7 +3508,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>5</v>
       </c>
@@ -3329,7 +3543,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>5</v>
       </c>
@@ -3364,10 +3578,10 @@
         <v>865</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="W32" s="2"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -3403,7 +3617,7 @@
       </c>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>0</v>
       </c>
@@ -3439,7 +3653,7 @@
       </c>
       <c r="W34" s="2"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -3474,7 +3688,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>2</v>
       </c>
@@ -3509,7 +3723,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>3</v>
       </c>
@@ -3544,7 +3758,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>4</v>
       </c>
@@ -3579,7 +3793,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>5</v>
       </c>
@@ -3614,17 +3828,17 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="B40" s="1"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>17</v>
       </c>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>0</v>
       </c>
@@ -3665,7 +3879,7 @@
         <v>-164</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>1</v>
       </c>
@@ -3706,7 +3920,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>2</v>
       </c>
@@ -3747,7 +3961,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>3</v>
       </c>
@@ -3788,7 +4002,7 @@
         <v>-259</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>4</v>
       </c>
@@ -3829,7 +4043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>5</v>
       </c>
@@ -3870,597 +4084,597 @@
         <v>-339</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>18</v>
       </c>
       <c r="B49">
-        <f>-C2-C4+C5+C6</f>
+        <f t="shared" ref="B49:J49" si="2">-C2-C4+C5+C6</f>
         <v>86</v>
       </c>
       <c r="C49">
-        <f>-D2-D4+D5+D6</f>
+        <f t="shared" si="2"/>
         <v>-24</v>
       </c>
       <c r="D49">
-        <f>-E2-E4+E5+E6</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="E49">
-        <f>-F2-F4+F5+F6</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F49">
-        <f>-G2-G4+G5+G6</f>
+        <f t="shared" si="2"/>
         <v>154</v>
       </c>
       <c r="G49">
-        <f>-H2-H4+H5+H6</f>
+        <f t="shared" si="2"/>
         <v>-40</v>
       </c>
       <c r="H49">
-        <f>-I2-I4+I5+I6</f>
+        <f t="shared" si="2"/>
         <v>-102</v>
       </c>
       <c r="I49">
-        <f>-J2-J4+J5+J6</f>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="J49">
-        <f>-K2-K4+K5+K6</f>
+        <f t="shared" si="2"/>
         <v>-164</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B50">
-        <f>-C7-C9+C10+C11</f>
+        <f t="shared" ref="B50:J50" si="3">-C7-C9+C10+C11</f>
         <v>-428</v>
       </c>
       <c r="C50">
-        <f>-D7-D9+D10+D11</f>
+        <f t="shared" si="3"/>
         <v>662</v>
       </c>
       <c r="D50">
-        <f>-E7-E9+E10+E11</f>
+        <f t="shared" si="3"/>
         <v>-155</v>
       </c>
       <c r="E50">
-        <f>-F7-F9+F10+F11</f>
+        <f t="shared" si="3"/>
         <v>1011</v>
       </c>
       <c r="F50">
-        <f>-G7-G9+G10+G11</f>
+        <f t="shared" si="3"/>
         <v>-582</v>
       </c>
       <c r="G50">
-        <f>-H7-H9+H10+H11</f>
+        <f t="shared" si="3"/>
         <v>880</v>
       </c>
       <c r="H50">
-        <f>-I7-I9+I10+I11</f>
+        <f t="shared" si="3"/>
         <v>-921</v>
       </c>
       <c r="I50">
-        <f>-J7-J9+J10+J11</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="J50">
-        <f>-K7-K9+K10+K11</f>
+        <f t="shared" si="3"/>
         <v>117</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B51">
-        <f>-C12-C14+C15+C16</f>
+        <f t="shared" ref="B51:J51" si="4">-C12-C14+C15+C16</f>
         <v>85</v>
       </c>
       <c r="C51">
-        <f>-D12-D14+D15+D16</f>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="D51">
-        <f>-E12-E14+E15+E16</f>
+        <f t="shared" si="4"/>
         <v>-32</v>
       </c>
       <c r="E51">
-        <f>-F12-F14+F15+F16</f>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="F51">
-        <f>-G12-G14+G15+G16</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="G51">
-        <f>-H12-H14+H15+H16</f>
+        <f t="shared" si="4"/>
         <v>124</v>
       </c>
       <c r="H51">
-        <f>-I12-I14+I15+I16</f>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="I51">
-        <f>-J12-J14+J15+J16</f>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="J51">
-        <f>-K12-K14+K15+K16</f>
+        <f t="shared" si="4"/>
         <v>-16</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B52">
-        <f>-C17-C19+C20+C21</f>
+        <f t="shared" ref="B52:J52" si="5">-C17-C19+C20+C21</f>
         <v>44</v>
       </c>
       <c r="C52">
-        <f>-D17-D19+D20+D21</f>
+        <f t="shared" si="5"/>
         <v>156</v>
       </c>
       <c r="D52">
-        <f>-E17-E19+E20+E21</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="E52">
-        <f>-F17-F19+F20+F21</f>
+        <f t="shared" si="5"/>
         <v>129</v>
       </c>
       <c r="F52">
-        <f>-G17-G19+G20+G21</f>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="G52">
-        <f>-H17-H19+H20+H21</f>
+        <f t="shared" si="5"/>
         <v>-18</v>
       </c>
       <c r="H52">
-        <f>-I17-I19+I20+I21</f>
+        <f t="shared" si="5"/>
         <v>220</v>
       </c>
       <c r="I52">
-        <f>-J17-J19+J20+J21</f>
+        <f t="shared" si="5"/>
         <v>151</v>
       </c>
       <c r="J52">
-        <f>-K17-K19+K20+K21</f>
+        <f t="shared" si="5"/>
         <v>-259</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B53">
-        <f>-C22-C24+C25+C26</f>
+        <f t="shared" ref="B53:J53" si="6">-C22-C24+C25+C26</f>
         <v>92</v>
       </c>
       <c r="C53">
-        <f>-D22-D24+D25+D26</f>
+        <f t="shared" si="6"/>
         <v>-7</v>
       </c>
       <c r="D53">
-        <f>-E22-E24+E25+E26</f>
+        <f t="shared" si="6"/>
         <v>-7</v>
       </c>
       <c r="E53">
-        <f>-F22-F24+F25+F26</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="F53">
-        <f>-G22-G24+G25+G26</f>
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="G53">
-        <f>-H22-H24+H25+H26</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="H53">
-        <f>-I22-I24+I25+I26</f>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
       <c r="I53">
-        <f>-J22-J24+J25+J26</f>
+        <f t="shared" si="6"/>
         <v>-54</v>
       </c>
       <c r="J53">
-        <f>-K22-K24+K25+K26</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B54">
-        <f>-C27-C29+C30+C31</f>
+        <f t="shared" ref="B54:J54" si="7">-C27-C29+C30+C31</f>
         <v>-396</v>
       </c>
       <c r="C54">
-        <f>-D27-D29+D30+D31</f>
+        <f t="shared" si="7"/>
         <v>402</v>
       </c>
       <c r="D54">
-        <f>-E27-E29+E30+E31</f>
+        <f t="shared" si="7"/>
         <v>-366</v>
       </c>
       <c r="E54">
-        <f>-F27-F29+F30+F31</f>
+        <f t="shared" si="7"/>
         <v>510</v>
       </c>
       <c r="F54">
-        <f>-G27-G29+G30+G31</f>
+        <f t="shared" si="7"/>
         <v>-422</v>
       </c>
       <c r="G54">
-        <f>-H27-H29+H30+H31</f>
+        <f t="shared" si="7"/>
         <v>1839</v>
       </c>
       <c r="H54">
-        <f>-I27-I29+I30+I31</f>
+        <f t="shared" si="7"/>
         <v>-778</v>
       </c>
       <c r="I54">
-        <f>-J27-J29+J30+J31</f>
+        <f t="shared" si="7"/>
         <v>389</v>
       </c>
       <c r="J54">
-        <f>-K27-K29+K30+K31</f>
+        <f t="shared" si="7"/>
         <v>-339</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B57" t="b">
         <f>B49=B42</f>
         <v>1</v>
       </c>
       <c r="C57" t="b">
-        <f t="shared" ref="C57:J57" si="2">C49=C42</f>
+        <f t="shared" ref="C57:J57" si="8">C49=C42</f>
         <v>1</v>
       </c>
       <c r="D57" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E57" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F57" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G57" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H57" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="I57" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="J57" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B58" t="b">
-        <f t="shared" ref="B58:J58" si="3">B50=B43</f>
+        <f t="shared" ref="B58:J58" si="9">B50=B43</f>
         <v>1</v>
       </c>
       <c r="C58" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D58" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E58" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F58" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="G58" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H58" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="I58" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J58" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B59" t="b">
-        <f t="shared" ref="B59:J59" si="4">B51=B44</f>
+        <f t="shared" ref="B59:J59" si="10">B51=B44</f>
         <v>1</v>
       </c>
       <c r="C59" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="D59" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E59" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F59" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="G59" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H59" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I59" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J59" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B60" t="b">
-        <f t="shared" ref="B60:J60" si="5">B52=B45</f>
+        <f t="shared" ref="B60:J60" si="11">B52=B45</f>
         <v>1</v>
       </c>
       <c r="C60" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="D60" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E60" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F60" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G60" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H60" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="I60" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J60" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="K60" s="2"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B61" t="b">
-        <f t="shared" ref="B61:J61" si="6">B53=B46</f>
+        <f t="shared" ref="B61:J61" si="12">B53=B46</f>
         <v>1</v>
       </c>
       <c r="C61" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D61" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="E61" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F61" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G61" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="H61" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="I61" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J61" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K61" s="2"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="B62" t="b">
-        <f>B54=B47</f>
+        <f t="shared" ref="B62:J62" si="13">B54=B47</f>
         <v>1</v>
       </c>
       <c r="C62" t="b">
-        <f>C54=C47</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="D62" t="b">
-        <f>D54=D47</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="E62" t="b">
-        <f>E54=E47</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F62" t="b">
-        <f>F54=F47</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="G62" t="b">
-        <f>G54=G47</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="H62" t="b">
-        <f>H54=H47</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="I62" t="b">
-        <f>I54=I47</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="J62" t="b">
-        <f>J54=J47</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K62" s="2"/>
     </row>
-    <row r="99" spans="15:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="15:18" ht="16" x14ac:dyDescent="0.2">
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
       <c r="Q99" s="2"/>
       <c r="R99" s="2"/>
     </row>
-    <row r="100" spans="15:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="15:18" ht="16" x14ac:dyDescent="0.2">
       <c r="O100" s="2"/>
     </row>
-    <row r="101" spans="15:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="15:18" ht="16" x14ac:dyDescent="0.2">
       <c r="O101" s="2"/>
     </row>
-    <row r="102" spans="15:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="15:18" ht="16" x14ac:dyDescent="0.2">
       <c r="O102" s="2"/>
     </row>
-    <row r="103" spans="15:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="15:18" ht="16" x14ac:dyDescent="0.2">
       <c r="O103" s="2"/>
     </row>
-    <row r="104" spans="15:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="15:18" ht="16" x14ac:dyDescent="0.2">
       <c r="O104" s="2"/>
     </row>
-    <row r="105" spans="15:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="15:18" ht="16" x14ac:dyDescent="0.2">
       <c r="O105" s="2"/>
     </row>
-    <row r="106" spans="15:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="15:18" ht="16" x14ac:dyDescent="0.2">
       <c r="O106" s="2"/>
     </row>
-    <row r="107" spans="15:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="15:18" ht="16" x14ac:dyDescent="0.2">
       <c r="O107" s="2"/>
       <c r="P107" s="2"/>
       <c r="Q107" s="2"/>
     </row>
-    <row r="108" spans="15:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="15:18" ht="16" x14ac:dyDescent="0.2">
       <c r="O108" s="2"/>
       <c r="P108" s="2"/>
       <c r="Q108" s="2"/>
     </row>
-    <row r="109" spans="15:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="15:18" ht="16" x14ac:dyDescent="0.2">
       <c r="O109" s="2"/>
       <c r="P109" s="2"/>
       <c r="Q109" s="2"/>
     </row>
-    <row r="110" spans="15:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="15:18" ht="16" x14ac:dyDescent="0.2">
       <c r="O110" s="2"/>
       <c r="P110" s="2"/>
       <c r="Q110" s="2"/>
     </row>
-    <row r="111" spans="15:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="15:18" ht="16" x14ac:dyDescent="0.2">
       <c r="O111" s="2"/>
       <c r="P111" s="2"/>
       <c r="Q111" s="2"/>
     </row>
-    <row r="112" spans="15:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="15:18" ht="16" x14ac:dyDescent="0.2">
       <c r="O112" s="2"/>
       <c r="P112" s="2"/>
       <c r="Q112" s="2"/>
     </row>
-    <row r="113" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="15:16" ht="16" x14ac:dyDescent="0.2">
       <c r="O113" s="2"/>
     </row>
-    <row r="114" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="15:16" ht="16" x14ac:dyDescent="0.2">
       <c r="O114" s="2"/>
     </row>
-    <row r="115" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="15:16" ht="16" x14ac:dyDescent="0.2">
       <c r="O115" s="2"/>
     </row>
-    <row r="116" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="15:16" ht="16" x14ac:dyDescent="0.2">
       <c r="O116" s="2"/>
     </row>
-    <row r="117" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="15:16" ht="16" x14ac:dyDescent="0.2">
       <c r="O117" s="2"/>
     </row>
-    <row r="118" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="15:16" ht="16" x14ac:dyDescent="0.2">
       <c r="O118" s="2"/>
     </row>
-    <row r="119" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="15:16" ht="16" x14ac:dyDescent="0.2">
       <c r="O119" s="2"/>
     </row>
-    <row r="120" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="15:16" ht="16" x14ac:dyDescent="0.2">
       <c r="O120" s="2"/>
       <c r="P120" s="2"/>
     </row>
-    <row r="121" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="15:16" ht="16" x14ac:dyDescent="0.2">
       <c r="O121" s="2"/>
       <c r="P121" s="2"/>
     </row>
-    <row r="122" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="15:16" ht="16" x14ac:dyDescent="0.2">
       <c r="O122" s="2"/>
       <c r="P122" s="2"/>
     </row>
-    <row r="123" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="15:16" ht="16" x14ac:dyDescent="0.2">
       <c r="O123" s="2"/>
       <c r="P123" s="2"/>
     </row>
-    <row r="124" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="15:16" ht="16" x14ac:dyDescent="0.2">
       <c r="O124" s="2"/>
       <c r="P124" s="2"/>
     </row>
-    <row r="125" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="15:16" ht="16" x14ac:dyDescent="0.2">
       <c r="O125" s="2"/>
       <c r="P125" s="2"/>
     </row>
-    <row r="126" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="15:16" ht="16" x14ac:dyDescent="0.2">
       <c r="O126" s="2"/>
     </row>
-    <row r="127" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="15:16" ht="16" x14ac:dyDescent="0.2">
       <c r="O127" s="2"/>
     </row>
-    <row r="128" spans="15:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="15:16" ht="16" x14ac:dyDescent="0.2">
       <c r="O128" s="2"/>
     </row>
-    <row r="129" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="15:15" ht="16" x14ac:dyDescent="0.2">
       <c r="O129" s="2"/>
     </row>
-    <row r="130" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="15:15" ht="16" x14ac:dyDescent="0.2">
       <c r="O130" s="2"/>
     </row>
-    <row r="131" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="15:15" ht="16" x14ac:dyDescent="0.2">
       <c r="O131" s="2"/>
     </row>
-    <row r="132" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="15:15" ht="16" x14ac:dyDescent="0.2">
       <c r="O132" s="2"/>
     </row>
   </sheetData>

--- a/ass_3/3/fix1_community_switching_detailed.xlsx
+++ b/ass_3/3/fix1_community_switching_detailed.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="35">
   <si>
     <t>Community</t>
   </si>
@@ -117,7 +117,22 @@
     <t>-&gt; 2010</t>
   </si>
   <si>
-    <t>-&gt; 2011</t>
+    <t>DB (0)</t>
+  </si>
+  <si>
+    <t>AL &amp; ML (1)</t>
+  </si>
+  <si>
+    <t>IR (2)</t>
+  </si>
+  <si>
+    <t>DM (3)</t>
+  </si>
+  <si>
+    <t>AL &amp; TH (4)</t>
+  </si>
+  <si>
+    <t>CV (5)</t>
   </si>
 </sst>
 </file>
@@ -187,26 +202,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft Sans Serif"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="26">
     <dxf>
       <font>
         <b val="0"/>
@@ -689,46 +685,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel2" displayName="Tabel2" ref="A1:L37" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
-  <autoFilter ref="A1:L37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel2" displayName="Tabel2" ref="A1:K37" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A1:K37"/>
   <sortState ref="A2:K37">
     <sortCondition ref="B1:B37"/>
   </sortState>
-  <tableColumns count="12">
-    <tableColumn id="1" name="Community" dataDxfId="24"/>
-    <tableColumn id="2" name="Type" dataDxfId="23"/>
-    <tableColumn id="3" name="2001 -&gt; 2002" dataDxfId="22"/>
-    <tableColumn id="4" name="-&gt; 2003" dataDxfId="21"/>
-    <tableColumn id="5" name=" -&gt; 2004" dataDxfId="20"/>
-    <tableColumn id="6" name="-&gt; 2005" dataDxfId="19"/>
-    <tableColumn id="7" name="-&gt; 2006" dataDxfId="18"/>
-    <tableColumn id="8" name="-&gt; 2007" dataDxfId="17"/>
-    <tableColumn id="9" name="-&gt; 2008" dataDxfId="16"/>
-    <tableColumn id="10" name="-&gt; 2009" dataDxfId="15"/>
-    <tableColumn id="11" name="-&gt; 2010" dataDxfId="14"/>
-    <tableColumn id="12" name="-&gt; 2011" dataDxfId="0">
-      <calculatedColumnFormula>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</calculatedColumnFormula>
-    </tableColumn>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Community" dataDxfId="23"/>
+    <tableColumn id="2" name="Type" dataDxfId="22"/>
+    <tableColumn id="3" name="2001 -&gt; 2002" dataDxfId="21"/>
+    <tableColumn id="4" name="-&gt; 2003" dataDxfId="20"/>
+    <tableColumn id="5" name=" -&gt; 2004" dataDxfId="19"/>
+    <tableColumn id="6" name="-&gt; 2005" dataDxfId="18"/>
+    <tableColumn id="7" name="-&gt; 2006" dataDxfId="17"/>
+    <tableColumn id="8" name="-&gt; 2007" dataDxfId="16"/>
+    <tableColumn id="9" name="-&gt; 2008" dataDxfId="15"/>
+    <tableColumn id="10" name="-&gt; 2009" dataDxfId="14"/>
+    <tableColumn id="11" name="-&gt; 2010" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:K31" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:K31" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:K31"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Community" dataDxfId="11"/>
-    <tableColumn id="2" name="Type" dataDxfId="10"/>
-    <tableColumn id="3" name="2001 -&gt; 2002" dataDxfId="9"/>
-    <tableColumn id="4" name="2002 -&gt; 2003" dataDxfId="8"/>
-    <tableColumn id="5" name="2003 -&gt; 2004" dataDxfId="7"/>
-    <tableColumn id="6" name="2004 -&gt; 2005" dataDxfId="6"/>
-    <tableColumn id="7" name="2005 -&gt; 2006" dataDxfId="5"/>
-    <tableColumn id="8" name="2006 -&gt; 2007" dataDxfId="4"/>
-    <tableColumn id="9" name="2007 -&gt; 2008" dataDxfId="3"/>
-    <tableColumn id="10" name="2008 -&gt; 2009" dataDxfId="2"/>
-    <tableColumn id="11" name="2009 -&gt; 2010" dataDxfId="1"/>
+    <tableColumn id="1" name="Community" dataDxfId="10"/>
+    <tableColumn id="2" name="Type" dataDxfId="9"/>
+    <tableColumn id="3" name="2001 -&gt; 2002" dataDxfId="8"/>
+    <tableColumn id="4" name="2002 -&gt; 2003" dataDxfId="7"/>
+    <tableColumn id="5" name="2003 -&gt; 2004" dataDxfId="6"/>
+    <tableColumn id="6" name="2004 -&gt; 2005" dataDxfId="5"/>
+    <tableColumn id="7" name="2005 -&gt; 2006" dataDxfId="4"/>
+    <tableColumn id="8" name="2006 -&gt; 2007" dataDxfId="3"/>
+    <tableColumn id="9" name="2007 -&gt; 2008" dataDxfId="2"/>
+    <tableColumn id="10" name="2008 -&gt; 2009" dataDxfId="1"/>
+    <tableColumn id="11" name="2009 -&gt; 2010" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1000,10 +993,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1015,7 +1008,7 @@
     <col min="12" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1049,13 +1042,10 @@
       <c r="K1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>15</v>
@@ -1087,14 +1077,10 @@
       <c r="K2" s="1">
         <v>259</v>
       </c>
-      <c r="L2" s="1">
-        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
-        <v>3143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
@@ -1126,14 +1112,10 @@
       <c r="K3" s="1">
         <v>442</v>
       </c>
-      <c r="L3" s="1">
-        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
-        <v>5673</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>15</v>
@@ -1165,14 +1147,10 @@
       <c r="K4" s="1">
         <v>263</v>
       </c>
-      <c r="L4" s="1">
-        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
-        <v>2140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3</v>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>15</v>
@@ -1204,14 +1182,10 @@
       <c r="K5" s="1">
         <v>452</v>
       </c>
-      <c r="L5" s="1">
-        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
-        <v>4224</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>4</v>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>15</v>
@@ -1243,14 +1217,10 @@
       <c r="K6" s="1">
         <v>235</v>
       </c>
-      <c r="L6" s="1">
-        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
-        <v>2312</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>5</v>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>15</v>
@@ -1282,14 +1252,10 @@
       <c r="K7" s="1">
         <v>594</v>
       </c>
-      <c r="L7" s="1">
-        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
-        <v>4649</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>0</v>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
@@ -1321,14 +1287,10 @@
       <c r="K8" s="1">
         <v>556</v>
       </c>
-      <c r="L8" s="1">
-        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
-        <v>4258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>1</v>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
@@ -1360,14 +1322,10 @@
       <c r="K9" s="1">
         <v>794</v>
       </c>
-      <c r="L9" s="1">
-        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
-        <v>7152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>2</v>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
@@ -1399,14 +1357,10 @@
       <c r="K10" s="1">
         <v>401</v>
       </c>
-      <c r="L10" s="1">
-        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
-        <v>2532</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>3</v>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
@@ -1438,14 +1392,10 @@
       <c r="K11" s="1">
         <v>869</v>
       </c>
-      <c r="L11" s="1">
-        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
-        <v>5035</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>4</v>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
@@ -1477,14 +1427,10 @@
       <c r="K12" s="1">
         <v>402</v>
       </c>
-      <c r="L12" s="1">
-        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
-        <v>3160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>5</v>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
@@ -1516,14 +1462,10 @@
       <c r="K13" s="1">
         <v>1196</v>
       </c>
-      <c r="L13" s="1">
-        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
-        <v>5621</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>0</v>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>20</v>
@@ -1555,14 +1497,10 @@
       <c r="K14" s="1">
         <v>187</v>
       </c>
-      <c r="L14" s="1">
-        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>1</v>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>20</v>
@@ -1594,14 +1532,10 @@
       <c r="K15" s="1">
         <v>335</v>
       </c>
-      <c r="L15" s="1">
-        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>2</v>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>20</v>
@@ -1633,14 +1567,10 @@
       <c r="K16" s="1">
         <v>136</v>
       </c>
-      <c r="L16" s="1">
-        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
-        <v>766</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>3</v>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>20</v>
@@ -1672,14 +1602,10 @@
       <c r="K17" s="1">
         <v>219</v>
       </c>
-      <c r="L17" s="1">
-        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
-        <v>1417</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>4</v>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>20</v>
@@ -1711,14 +1637,10 @@
       <c r="K18" s="1">
         <v>177</v>
       </c>
-      <c r="L18" s="1">
-        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>5</v>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>20</v>
@@ -1750,14 +1672,10 @@
       <c r="K19" s="1">
         <v>271</v>
       </c>
-      <c r="L19" s="1">
-        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>0</v>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>12</v>
@@ -1789,14 +1707,10 @@
       <c r="K20" s="1">
         <v>146</v>
       </c>
-      <c r="L20" s="1">
-        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
-        <v>1537</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>1</v>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>12</v>
@@ -1828,14 +1742,10 @@
       <c r="K21" s="1">
         <v>194</v>
       </c>
-      <c r="L21" s="1">
-        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>2</v>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>12</v>
@@ -1867,14 +1777,10 @@
       <c r="K22" s="1">
         <v>73</v>
       </c>
-      <c r="L22" s="1">
-        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
-        <v>426</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>3</v>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>12</v>
@@ -1906,14 +1812,10 @@
       <c r="K23" s="1">
         <v>144</v>
       </c>
-      <c r="L23" s="1">
-        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
-        <v>997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>4</v>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>12</v>
@@ -1945,14 +1847,10 @@
       <c r="K24" s="1">
         <v>65</v>
       </c>
-      <c r="L24" s="1">
-        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
-        <v>961</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>5</v>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>12</v>
@@ -1984,14 +1882,10 @@
       <c r="K25" s="1">
         <v>362</v>
       </c>
-      <c r="L25" s="1">
-        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>0</v>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>13</v>
@@ -2023,14 +1917,10 @@
       <c r="K26" s="1">
         <v>128</v>
       </c>
-      <c r="L26" s="1">
-        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>1</v>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>13</v>
@@ -2062,14 +1952,10 @@
       <c r="K27" s="1">
         <v>359</v>
       </c>
-      <c r="L27" s="1">
-        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
-        <v>1762</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>2</v>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>13</v>
@@ -2101,14 +1987,10 @@
       <c r="K28" s="1">
         <v>131</v>
       </c>
-      <c r="L28" s="1">
-        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
-        <v>850</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>3</v>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>13</v>
@@ -2140,14 +2022,10 @@
       <c r="K29" s="1">
         <v>243</v>
       </c>
-      <c r="L29" s="1">
-        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
-        <v>1890</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>4</v>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>13</v>
@@ -2179,14 +2057,10 @@
       <c r="K30" s="1">
         <v>150</v>
       </c>
-      <c r="L30" s="1">
-        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>5</v>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>13</v>
@@ -2218,14 +2092,10 @@
       <c r="K31" s="1">
         <v>192</v>
       </c>
-      <c r="L31" s="1">
-        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
-        <v>907</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>0</v>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>14</v>
@@ -2257,14 +2127,10 @@
       <c r="K32" s="1">
         <v>182</v>
       </c>
-      <c r="L32" s="1">
-        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>1</v>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>14</v>
@@ -2296,14 +2162,10 @@
       <c r="K33" s="1">
         <v>225</v>
       </c>
-      <c r="L33" s="1">
-        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
-        <v>1708</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>2</v>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>14</v>
@@ -2335,14 +2197,10 @@
       <c r="K34" s="1">
         <v>145</v>
       </c>
-      <c r="L34" s="1">
-        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
-        <v>813</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>3</v>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>14</v>
@@ -2374,14 +2232,10 @@
       <c r="K35" s="1">
         <v>304</v>
       </c>
-      <c r="L35" s="1">
-        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>4</v>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>14</v>
@@ -2413,14 +2267,10 @@
       <c r="K36" s="1">
         <v>147</v>
       </c>
-      <c r="L36" s="1">
-        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>5</v>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>14</v>
@@ -2451,10 +2301,6 @@
       </c>
       <c r="K37" s="1">
         <v>200</v>
-      </c>
-      <c r="L37" s="1">
-        <f>SUM(Tabel2[[#This Row],[2001 -&gt; 2002]:[-&gt; 2010]])</f>
-        <v>826</v>
       </c>
     </row>
   </sheetData>

--- a/ass_3/3/fix1_community_switching_detailed.xlsx
+++ b/ass_3/3/fix1_community_switching_detailed.xlsx
@@ -996,7 +996,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2327,8 +2327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W132"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
